--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>MIMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,178 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>37600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>50400</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>38900</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>42000</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>45900</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>81500</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>29700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>22800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18700</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,37 +848,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,13 +918,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -883,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>-2100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -897,37 +956,55 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,37 +1013,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2100</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>67200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>69300</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>48500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>70300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>43600</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,28 +1063,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-16800</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-30400</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-6500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-7600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1105,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,144 +1117,189 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>4300</v>
+        <v>7500</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-1300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-7000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7700</v>
+        <v>-29800</v>
       </c>
       <c r="E23" s="3">
-        <v>3000</v>
+        <v>-20900</v>
       </c>
       <c r="F23" s="3">
-        <v>4100</v>
+        <v>-26500</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-10300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1327,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-7700</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>3000</v>
+        <v>-19600</v>
       </c>
       <c r="F26" s="3">
-        <v>4100</v>
+        <v>-27000</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-7700</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>3000</v>
+        <v>-19600</v>
       </c>
       <c r="F27" s="3">
-        <v>4100</v>
+        <v>-27000</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1441,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1479,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1517,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1555,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,57 +1573,75 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4300</v>
+        <v>-7500</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-7700</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>3000</v>
+        <v>-19600</v>
       </c>
       <c r="F33" s="3">
-        <v>4100</v>
+        <v>-27000</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1669,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-7700</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>3000</v>
+        <v>-19600</v>
       </c>
       <c r="F35" s="3">
-        <v>4100</v>
+        <v>-27000</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1772,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,25 +1788,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>45900</v>
       </c>
       <c r="E41" s="3">
-        <v>800</v>
+        <v>62900</v>
       </c>
       <c r="F41" s="3">
-        <v>1200</v>
+        <v>85100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1820,17 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,83 +1858,110 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>53400</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>32400</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>17200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>12100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>18900</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>19000</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>9400</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1676,25 +1972,34 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>133600</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>157200</v>
       </c>
       <c r="F46" s="3">
-        <v>1500</v>
+        <v>164400</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>75200</v>
+      </c>
+      <c r="H46" s="3">
+        <v>84500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1705,8 +2010,17 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,66 +2048,93 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>13900</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>20100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>20700</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>21000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2162,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,25 +2200,34 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>116200</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>116200</v>
+        <v>3900</v>
       </c>
       <c r="F52" s="3">
-        <v>116200</v>
+        <v>3800</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>3800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2238,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,25 +2276,34 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>116500</v>
+        <v>170900</v>
       </c>
       <c r="E54" s="3">
-        <v>117200</v>
+        <v>195500</v>
       </c>
       <c r="F54" s="3">
-        <v>117700</v>
+        <v>202600</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>113800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>123100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2314,17 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2336,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,25 +2352,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>28600</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>29700</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>24700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>16800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1992,25 +2384,34 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10700</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>12300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2021,25 +2422,34 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>33200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>31000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>31700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2050,25 +2460,34 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1600</v>
+        <v>71900</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>73600</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>68600</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>59500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>60900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2079,25 +2498,34 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>118500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>117200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>117900</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>75200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>73700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2108,25 +2536,34 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18400</v>
+        <v>19900</v>
       </c>
       <c r="E62" s="3">
-        <v>12800</v>
+        <v>20900</v>
       </c>
       <c r="F62" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>21200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2574,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2612,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2650,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,25 +2688,34 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20000</v>
+        <v>210400</v>
       </c>
       <c r="E66" s="3">
-        <v>13000</v>
+        <v>211800</v>
       </c>
       <c r="F66" s="3">
-        <v>16500</v>
+        <v>208700</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>156000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>155700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2726,17 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2748,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2780,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2818,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2339,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2353,8 +2856,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,25 +2894,34 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-795600</v>
       </c>
       <c r="E72" s="3">
-        <v>7100</v>
+        <v>-765900</v>
       </c>
       <c r="F72" s="3">
-        <v>4100</v>
+        <v>-746200</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-719300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-708900</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2932,17 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2970,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +3008,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,25 +3046,34 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96500</v>
+        <v>-39400</v>
       </c>
       <c r="E76" s="3">
-        <v>104200</v>
+        <v>-16300</v>
       </c>
       <c r="F76" s="3">
-        <v>101200</v>
+        <v>-6100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-406300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-396800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +3084,17 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +3122,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-7700</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>3000</v>
+        <v>-19600</v>
       </c>
       <c r="F81" s="3">
-        <v>4100</v>
+        <v>-27000</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-10400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3225,49 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3295,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3333,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3371,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3409,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3447,55 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-14900</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-21400</v>
       </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-41500</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-16700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>400</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3507,49 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3577,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3615,55 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3675,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3707,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3745,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3783,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,37 +3821,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1000</v>
       </c>
       <c r="F100" s="3">
-        <v>117700</v>
+        <v>115500</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>8000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,33 +3897,51 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>-17000</v>
       </c>
       <c r="E102" s="3">
-        <v>-400</v>
+        <v>-22100</v>
       </c>
       <c r="F102" s="3">
-        <v>1100</v>
+        <v>72800</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-18400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7600</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>MIMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,35 +722,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E8" s="3">
         <v>37600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>50400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>45900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -759,35 +763,38 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E9" s="3">
         <v>25500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>29700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>21800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,35 +804,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +864,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E12" s="3">
         <v>16500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,31 +944,34 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,14 +1009,14 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,35 +1042,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>65200</v>
       </c>
       <c r="E17" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F17" s="3">
         <v>67200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>69300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>51500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,35 +1081,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-18300</v>
       </c>
       <c r="E18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,35 +1141,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,35 +1180,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-15800</v>
       </c>
       <c r="E21" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,35 +1221,38 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1222,35 +1262,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1269,26 +1315,26 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,35 +1385,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-21000</v>
       </c>
       <c r="E26" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,35 +1426,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-21000</v>
       </c>
       <c r="E27" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>8300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,35 +1631,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,35 +1672,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-21000</v>
       </c>
       <c r="E33" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>8300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,35 +1754,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-21000</v>
       </c>
       <c r="E35" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>8300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,40 +1795,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,29 +1877,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>45900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>30600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,34 +1957,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E43" s="3">
         <v>49800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>40700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1905,34 +1998,37 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E44" s="3">
         <v>19000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>17200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>14000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>12100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1943,29 +2039,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>18900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,29 +2080,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E46" s="3">
         <v>133600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>157200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>75200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,34 +2162,37 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2095,34 +2203,37 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E49" s="3">
         <v>19800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,29 +2326,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
         <v>3900</v>
       </c>
       <c r="F52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G52" s="3">
         <v>3800</v>
       </c>
       <c r="H52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,29 +2408,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E54" s="3">
         <v>170900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>195500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>202600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>113800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>123100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,29 +2485,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E57" s="3">
         <v>28600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>24700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,29 +2524,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E58" s="3">
         <v>14600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,29 +2565,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E59" s="3">
         <v>28800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,29 +2606,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E60" s="3">
         <v>71900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>59500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60900</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,29 +2647,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E61" s="3">
         <v>118500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>117200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>117900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>73700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2545,29 +2688,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E62" s="3">
         <v>19900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,29 +2852,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E66" s="3">
         <v>210400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>211800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>208700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>156000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2842,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>364100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>364100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,29 +3074,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-816600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-795600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-765900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-746200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-719300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-708900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,29 +3238,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-39400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-406300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-396800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,40 +3320,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,35 +3366,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-21000</v>
       </c>
       <c r="E81" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>8300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,35 +3426,36 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3670,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-41500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-16700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3519,26 +3740,26 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3633,26 +3863,26 @@
         <v>-800</v>
       </c>
       <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4073,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3839,26 +4085,26 @@
         <v>-1300</v>
       </c>
       <c r="E100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>115500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,35 +4155,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>72800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>MIMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,38 +726,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E8" s="3">
         <v>46900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>50400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>38900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -766,38 +770,41 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E9" s="3">
         <v>28100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>29700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>21800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E10" s="3">
         <v>18800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,38 +878,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,34 +964,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -988,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1012,14 +1035,14 @@
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>65200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>62800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>67200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>69300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>43600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,38 +1111,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,38 +1175,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,38 +1217,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,38 +1261,41 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
         <v>4200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1265,38 +1305,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,38 +1349,41 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,38 +1701,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>85100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,37 +2050,40 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E43" s="3">
         <v>48300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2001,37 +2094,40 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E44" s="3">
         <v>17500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>19000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>14000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>12100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2042,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E46" s="3">
         <v>118800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>157200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>75200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>84500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,37 +2270,40 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2206,37 +2314,40 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E49" s="3">
         <v>19500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,32 +2446,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3900</v>
       </c>
       <c r="F52" s="3">
         <v>3900</v>
       </c>
       <c r="G52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H52" s="3">
         <v>3800</v>
       </c>
       <c r="I52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E54" s="3">
         <v>155200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>170900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>195500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>202600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>123100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E57" s="3">
         <v>26700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>29700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,32 +2658,35 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,32 +2702,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E59" s="3">
         <v>31500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E60" s="3">
         <v>72800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>71900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>59500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>60900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,32 +2790,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>119800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>118500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>117200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>117900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>73700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2691,32 +2834,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E62" s="3">
         <v>16000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>209400</v>
+      </c>
+      <c r="E66" s="3">
         <v>208700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>210400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>211800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>208700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>156000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3013,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>364100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>364100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-839900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-816600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-795600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-765900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-746200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-719300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-708900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-53500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-39400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-406300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-396800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3436,29 +3635,29 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1100</v>
       </c>
       <c r="I83" s="3">
         <v>1100</v>
       </c>
       <c r="J83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-41500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,38 +3951,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-800</v>
       </c>
       <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-800</v>
       </c>
       <c r="F94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
         <v>-1300</v>
       </c>
       <c r="F100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>115500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>72800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>MIMO</t>
   </si>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1075,8 +1075,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>57900</v>
       </c>
       <c r="E17" s="3">
         <v>65200</v>
@@ -1119,8 +1119,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-16800</v>
       </c>
       <c r="E18" s="3">
         <v>-18300</v>
@@ -1181,8 +1181,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
         <v>1400</v>
@@ -1225,8 +1225,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-17700</v>
       </c>
       <c r="E21" s="3">
         <v>-15800</v>
@@ -1445,8 +1445,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-23300</v>
       </c>
       <c r="E26" s="3">
         <v>-21000</v>
@@ -1489,8 +1489,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-23300</v>
       </c>
       <c r="E27" s="3">
         <v>-21000</v>
@@ -1709,8 +1709,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
         <v>-1400</v>
@@ -1753,8 +1753,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-23300</v>
       </c>
       <c r="E33" s="3">
         <v>-21000</v>
@@ -1841,8 +1841,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-23300</v>
       </c>
       <c r="E35" s="3">
         <v>-21000</v>
@@ -2667,7 +2667,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52000</v>
+        <v>135900</v>
       </c>
       <c r="E58" s="3">
         <v>14700</v>
@@ -3569,8 +3569,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-23300</v>
       </c>
       <c r="E81" s="3">
         <v>-21000</v>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,229 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F8" s="3">
         <v>41100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>46900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>37600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>50400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>38900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>42000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>81500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>36000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F9" s="3">
         <v>24800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>25500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>29700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>21800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>22800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>25000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>44200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F10" s="3">
         <v>16300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>18800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>20700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>17100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>19200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>20900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>37300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>17300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +904,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F12" s="3">
         <v>15000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>16700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>16500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>17500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>15500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>13900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,40 +1000,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1011,13 +1050,19 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -1038,25 +1083,31 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1121,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F17" s="3">
         <v>57900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>65200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>62800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>67200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>69300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>48500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>51500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>43600</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-16800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-18300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,228 +1241,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-17700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-15800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F22" s="3">
         <v>4300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4600</v>
       </c>
       <c r="G22" s="3">
         <v>4200</v>
       </c>
       <c r="H22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-29800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1537,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-23300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-29700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-19600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-23300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-29700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-19600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1837,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-23300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-29700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-19600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-27000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1987,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-23300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-29700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-19600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-27000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,38 +2136,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>27300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>45900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>62900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>85100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>30600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,43 +2232,49 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F43" s="3">
         <v>42200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>48300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>58000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>53400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>40700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>32400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2097,43 +2282,49 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F44" s="3">
         <v>15600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>17500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>19000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>17200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>14000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>12100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2141,38 +2332,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E45" s="3">
         <v>17300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,38 +2382,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F46" s="3">
         <v>102400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>118800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>133600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>157200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>164400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>75200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>84500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,43 +2482,49 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2317,43 +2532,49 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F49" s="3">
         <v>19200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>19800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>20400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>20700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>21000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,38 +2682,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,38 +2782,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>125100</v>
+      </c>
+      <c r="F54" s="3">
         <v>138400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>155200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>170900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>195500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>202600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>113800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>123100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,38 +2876,40 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F57" s="3">
         <v>25800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>26700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>28600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>29700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>24700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>17900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,38 +2922,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>137400</v>
+      </c>
+      <c r="F58" s="3">
         <v>135900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>10700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>12300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,38 +2972,44 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F59" s="3">
         <v>38000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>31500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>28800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>29900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>33200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>31000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>31700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,38 +3022,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>198700</v>
+      </c>
+      <c r="F60" s="3">
         <v>199700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>72800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>71900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>73600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>68600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>59500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>60900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +3072,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2802,29 +3087,29 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>119800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>118500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>117200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>117900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>75200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>73700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2837,38 +3122,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>20900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>22200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>21300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>21200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,38 +3322,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>205900</v>
+      </c>
+      <c r="F66" s="3">
         <v>209400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>208700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>210400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>211800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>208700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>156000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>155700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,17 +3519,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>364100</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>364100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,38 +3592,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-872100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-851200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-839900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-816600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-795600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-765900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-746200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-719300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-708900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,38 +3792,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-80800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-71000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-53500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-39400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-16300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-6100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-406300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-396800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3892,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-23300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-29700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-19600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-27000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,52 +4021,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
       </c>
       <c r="H83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,52 +4317,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-21400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-41500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-16700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,52 +4391,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1200</v>
       </c>
       <c r="I91" s="3">
         <v>-1700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,52 +4537,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1200</v>
       </c>
       <c r="I94" s="3">
         <v>-1700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,52 +4807,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>115500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>14400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,48 +4907,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-17000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-22100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>72800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-18400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>12200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,47 +737,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E8" s="3">
         <v>24800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>46900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>50400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>36000</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -786,47 +790,50 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E9" s="3">
         <v>14400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>22400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>24800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>29700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>25000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>18700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,47 +843,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E10" s="3">
         <v>10400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>18800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,47 +919,48 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,43 +1023,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>11300</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-2100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1056,16 +1076,19 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1089,14 +1112,14 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
+        <v>300</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E17" s="3">
         <v>42400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>67200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>69300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43600</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1200,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-18300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,47 +1276,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,47 +1327,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-15400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-15800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,47 +1380,50 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1393,47 +1433,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,47 +1486,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-23300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-19600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-19600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,47 +1910,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-19600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-19600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2224,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>85100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>30600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,46 +2328,49 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E43" s="3">
         <v>24800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>53400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2288,46 +2381,49 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E44" s="3">
         <v>15800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>18600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>17500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>14000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2338,41 +2434,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E45" s="3">
         <v>30500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>17300</v>
       </c>
       <c r="F45" s="3">
         <v>17300</v>
       </c>
       <c r="G45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2487,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E46" s="3">
         <v>74400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>102400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>118800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>157200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>164400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,46 +2593,49 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E48" s="3">
         <v>10200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2547,37 +2658,37 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>18900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,41 +2805,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E52" s="3">
         <v>41000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>3400</v>
       </c>
       <c r="F52" s="3">
         <v>3400</v>
       </c>
       <c r="G52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H52" s="3">
         <v>3800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3900</v>
       </c>
       <c r="I52" s="3">
         <v>3900</v>
       </c>
       <c r="J52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K52" s="3">
         <v>3800</v>
       </c>
       <c r="L52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2911,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E54" s="3">
         <v>125500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>138400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>170900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>195500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>202600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3008,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E57" s="3">
         <v>17000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>26200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>26700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,41 +3059,44 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E58" s="3">
         <v>140500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>137400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>135900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,41 +3112,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E59" s="3">
         <v>44300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3165,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E60" s="3">
         <v>201700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>199700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>72800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>73600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,13 +3218,16 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>150200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3093,26 +3236,26 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>119800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>118500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>117200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>117900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>73700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3128,41 +3271,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E62" s="3">
         <v>23700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3483,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>238200</v>
+      </c>
+      <c r="E66" s="3">
         <v>225400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>205900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>209400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>208700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>210400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>211800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>208700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>156000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>364100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>364100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3769,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-905700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-872100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-851200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-839900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-816600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-795600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-765900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-746200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-719300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-708900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3981,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-129800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-99900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-80800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-71000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-53500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-39400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-406300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-396800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-19600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,16 +4221,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>1200</v>
@@ -4041,29 +4240,29 @@
         <v>1200</v>
       </c>
       <c r="H83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1100</v>
       </c>
       <c r="L83" s="3">
         <v>1100</v>
       </c>
       <c r="M83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,47 +4537,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4402,38 +4623,38 @@
         <v>-600</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-800</v>
       </c>
       <c r="H91" s="3">
         <v>-800</v>
       </c>
       <c r="I91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,8 +4770,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4552,38 +4782,38 @@
         <v>-600</v>
       </c>
       <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-800</v>
       </c>
       <c r="H94" s="3">
         <v>-800</v>
       </c>
       <c r="I94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,47 +5056,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1300</v>
       </c>
       <c r="H100" s="3">
         <v>-1300</v>
       </c>
       <c r="I100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>115500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,47 +5162,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-20000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-22100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIMO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E8" s="3">
         <v>32100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>46900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>50400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>38900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>45900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -793,50 +797,53 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="3">
         <v>25400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>25500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>25000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>18700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +853,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>18800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>20900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,50 +933,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E12" s="3">
         <v>13400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13200</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,46 +1043,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E14" s="3">
         <v>11300</v>
-      </c>
-      <c r="E14" s="3">
-        <v>300</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-2100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1115,14 +1138,14 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
+        <v>300</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>61200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>65200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>67200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>69300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>70300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-30400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1310,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,50 +1364,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-15400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,50 +1420,53 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,50 +1532,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-33600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-33600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +1980,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-33600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-33600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,44 +2311,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,49 +2421,52 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E43" s="3">
         <v>22800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2384,49 +2477,52 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
         <v>10600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>17500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2437,44 +2533,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E45" s="3">
         <v>31500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>30500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>17300</v>
       </c>
       <c r="G45" s="3">
         <v>17300</v>
       </c>
       <c r="H45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,44 +2589,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E46" s="3">
         <v>75000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>89700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>102400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>118800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>157200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>164400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2645,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2596,49 +2701,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>9400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2649,8 +2757,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,37 +2772,37 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
         <v>18900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,44 +2925,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>24000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3400</v>
       </c>
       <c r="G52" s="3">
         <v>3400</v>
       </c>
       <c r="H52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I52" s="3">
         <v>3800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3900</v>
       </c>
       <c r="J52" s="3">
         <v>3900</v>
       </c>
       <c r="K52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="L52" s="3">
         <v>3800</v>
       </c>
       <c r="M52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,44 +3037,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E54" s="3">
         <v>108400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>155200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>170900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>195500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>202600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,44 +3139,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>17400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>26200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>26700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,44 +3193,47 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E58" s="3">
         <v>15800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>140500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>137400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>135900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,44 +3249,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E59" s="3">
         <v>44800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,44 +3305,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E60" s="3">
         <v>78000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>201700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>199700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>73600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>59500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>60900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,17 +3361,20 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>150200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3239,26 +3382,26 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>119800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>118500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>117200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>117900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>73700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3274,44 +3417,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
         <v>9900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>23700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,44 +3641,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E66" s="3">
         <v>238200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>225400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>205900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>209400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>208700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>210400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>211800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>208700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>156000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>364100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>364100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>364100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,44 +3943,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-895800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-905700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-872100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-851200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-839900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-816600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-795600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-765900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-746200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-719300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-708900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,44 +4167,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-129800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-99900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-80800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-71000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-53500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-39400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-16300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-406300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-396800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-33600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4420,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4231,10 +4430,10 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1200</v>
       </c>
       <c r="G83" s="3">
         <v>1200</v>
@@ -4243,29 +4442,29 @@
         <v>1200</v>
       </c>
       <c r="I83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1100</v>
       </c>
       <c r="M83" s="3">
         <v>1100</v>
       </c>
       <c r="N83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4754,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-41500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,50 +4834,51 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-600</v>
       </c>
       <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-800</v>
       </c>
       <c r="I91" s="3">
         <v>-800</v>
       </c>
       <c r="J91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +5000,53 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-600</v>
+        <v>55200</v>
       </c>
       <c r="E94" s="3">
         <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-800</v>
       </c>
       <c r="I94" s="3">
         <v>-800</v>
       </c>
       <c r="J94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5302,53 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E100" s="3">
         <v>17200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1300</v>
       </c>
       <c r="I100" s="3">
         <v>-1300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5414,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
